--- a/biology/Biochimie/Glycophorine/Glycophorine.xlsx
+++ b/biology/Biochimie/Glycophorine/Glycophorine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glycophorine est un terme générique désignant une famille de glycoprotéines, porteuses de nombreuses chaines osidiques, d'où leur nom de porteuses de glucides (du grec glyco- : γλυκύς doux (saveur, odeur), et phor- : φορός, όν qui porte en avant, qui pousse).
 Chez l'Homme, quatre glycophorines ont été isolées de la membrane des érythrocytes.  Les glycophorines A, B, C, et D sont des protéines transmembranaires (un unique passage membranaire, hélice alpha), glycosylées, terminaison NH2 externe et COOH intracytoplasmique. Les glycophorines A et B, chromosome 4 (4q28-q31), portent les antigènes de groupe sanguin MNS, système 002 de la nomenclature de l'ISBT. Les glycophorines C et D, chromosome 2 (2q14-q21), portant les antigènes du groupe sanguin Gerbich, système 020. Nous ne savons pas si le gène GYPE, très fortement lié aux gènes GYPA et GYPB s'exprime.
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Glycophorine A, OMIM (en) 111300 (en) : 131 AA, domaine extracellulaire N-terminal de 72 AA, intramembranaire de 23 AA, C-terminal intracytoplasmique de 36AA. 15 sites de O-glycosylation et 1 site de N-glycosylation extracellulaire. Il y a environ 106 molécules de GPA sur un érythrocyte. La GPA porte les antigènes M (MNS1) ou N (MNS2).
 Glycophorine B, OMIM (en) 111740 (en) : 72 AA, domaine extracellulaire N-terminal de 44 AA, intramembranaire de 20 AA, C-terminal intracytoplasmique de 8 AA seulement. 11 sites de O-glycosylation extracellulaire. Il y a de 1,7 à 2,5 105 molécules de GPB sur un érythrocyte. La GPB porte les antigènes S (MNS3) ou s (MNS4), et U (MNS5).
@@ -547,7 +561,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'importante glycosylation des glycophorines fait penser que leur fonction principale consiste à former le glycocalyx et à participer au potentiel zêta évitant l'agrégation spontanée des érythrocytes. En effet, leur charge en acide sialique (qui est un ose, acide N-acétylneuraminique) apporte beaucoup de radicaux carboxyliques électronégatifs. Cette fonction est d'ailleurs attestée par le fait que le groupe sanguin Ena- (MNS:-28) dû à une absence de GPA, ou l'hétérozygotie MK, causant un déficit en GPA et GPB, entraînent une agglutinabilité de ces hématies par des anticorps dits incomplets de type IgG (anti-D, par exemple) incapables d'agglutiner à eux seuls des hématies normales.
  Portail de la biochimie   Portail de la biologie cellulaire et moléculaire                    </t>
